--- a/assets/cursos/EP/LOQ4248.xlsx
+++ b/assets/cursos/EP/LOQ4248.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2018</t>
+    <t>01/01/2021</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -82,7 +82,7 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840560 - Marco Antonio Carvalho Pereira</t>
+    <t>11079086 - Herlandí de Souza Andrade</t>
   </si>
   <si>
     <t>Programa resumido:</t>
@@ -115,25 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>Aulas expositivas; trabalhos em grupo; exercícios individuais e palestras.</t>
+    <t>Aulas expositivas e dialogadas; dinâmicas, projetos e trabalhos em grupo; exercícios individuais; e, seminários, debates e palestras.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Provas e Trabalhos.</t>
+    <t>Média Aritmética dos Projetos, Trabalhos, Exercícios e outras atividades avaliativas realizadas no decorrer da disciplina, considerando as questões relativas às Competências (Conhecimento, Habilidade e Atitude, que incluem a presença e participação dos alunos nas aulas) desenvolvidas.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>NF = (MF + PR)/2, onde PR é uma prova de recuperação.</t>
+    <t>NF = (MF + PR)/2, onde MF é a média final da avaliação e PR é uma prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>SAPIRO, Arão., CHIAVENATO, I. Planejamento Estratégico. Campus, 2ª. edição, 2010KOTLER, P. Administração de Marketing, edição do milênio, revisão técnica de Prof. Arão Sapiro. Prentice-Hall, 2000.HOOLEY, Graham J.; PIERCY, Nigel F.; SAUNDERS, John A. Estratégia de Marketing e Posicionamento Competitivo tradução e revisão técnica: Prof. Arão Sapiro. Pearson Education do Brasil, 2001.SAPIRO, ARAO; GANGANA, MAURÍCIO; LIMA, MIGUEL; VILHENA, JOÃO BAPTISTA. Gestão de Marketing . FGV Editora, 2004.BOONE, L. e KURTZ, D.L. Marketing contemporâneo. 8ª ed. São Paulo, Livros Técnicos e Científicos, 1998.KOTLER, P; JATURISPITAK, S. e MAESINCIE, S. O marketing das nações. São Paulo, Futura, 1997. MARTINS, J.R. e BLECHER, N. O império das marcas. 2ª ed. São Paulo, Negócio Editora, 1997THUROW, L.C. O futuro do capitalismo. 2ª ed. São Paulo, Rocco, 1997.VAZ, G. N. Marketing institucional. São Paulo, Pioneira, 1995.Bibliografia ComplementarArtigos das Revistas: Marketing, Meio e Mensagem, Exame, Dinheiro, Revista da Escola de Administração da FEA-USP, Revista ESPM.</t>
+    <t>KOTLER, P.; KELLER, K. L. Administração De Marketing. 15 ed. São Paulo: Pearson, 2019.KOTLER, P.; KARTAJAYA, H.; SETIAWAN, I. Marketing 4.0: do Tradicional ao Digital. São Paulo: Sextante, 2017.KOTLER, P. - ARMSTRONG, G. Princípios De Marketing. 15 ed. São Paulo: Pearson, 2014.KOTLER, P.; KELLER, K. L.  Marketing Essencial. 5 ed. São Paulo: Pearson, 2013.SANDHUSEN, R. L. Marketing Básico - Série Essencial. 3 ed. São Paulo: Saraiva, 2010.SAPIRO, Arão., CHIAVENATO, I. Planejamento Estratégico. Campus, 2ª. edição, 2010 KOTLER, P. Administração de Marketing, edição do milênio, revisão técnica de Prof. Arão Sapiro. Prentice-Hall, 2000. HOOLEY, Graham J.; PIERCY, Nigel F.; SAUNDERS, John A. Estratégia de Marketing e Posicionamento Competitivo tradução e revisão técnica: Prof. Arão Sapiro. Pearson Education do Brasil, 2001. SAPIRO, ARAO; GANGANA, MAURÍCIO; LIMA, MIGUEL; VILHENA, JOÃO BAPTISTA. Gestão de Marketing . FGV Editora, 2004. BOONE, L. e KURTZ, D.L. Marketing contemporâneo. 8ª ed. São Paulo, Livros Técnicos e Científicos, 1998. KOTLER, P; JATURISPITAK, S. e MAESINCIE, S. O marketing das nações. São Paulo, Futura, 1997. MARTINS, J.R. e BLECHER, N. O império das marcas. 2ª ed. São Paulo, Negócio Editora, 1997 THUROW, L.C. O futuro do capitalismo. 2ª ed. São Paulo, Rocco, 1997. VAZ, G. N. Marketing institucional. São Paulo, Pioneira, 1995. Bibliografia Complementar Artigos das Revistas: Marketing, Meio e Mensagem, Exame, Dinheiro, Revista da Escola de Administração da FEA-USP, Revista ESPM.</t>
   </si>
   <si>
     <t>Requisitos:</t>
